--- a/invoice-watermarked.xlsx
+++ b/invoice-watermarked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swinc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA67FA8-1914-4DF8-8409-04B046E9D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAE703F-16AA-4791-92A9-29206C602969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="0" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
@@ -62,14 +52,9 @@
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
-      <rc t="2" v="0"/>
+      <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -370,15 +355,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -396,7 +374,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +392,13 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,70 +543,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,7 +834,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,53 +846,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A1" s="25"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="9" t="str" cm="1">
+      <c r="A7" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">IF(NOT(IsGoogleSheets),"","Google Sheets is not allowed in the trial version!")</f>
         <v/>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
@@ -979,7 +898,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -990,7 +909,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1002,7 +921,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1018,226 +937,226 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="26">
         <v>100</v>
       </c>
-      <c r="E15" s="29" cm="1">
+      <c r="E15" s="26" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IF(NOT(IsGoogleSheets),C15*D15,"GOOGLE SHEETS DETECTED")</f>
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>2</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="27">
         <v>100</v>
       </c>
-      <c r="E16" s="30" cm="1">
+      <c r="E16" s="27" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">IF(NOT(IsGoogleSheets),C16*D16,"GOOGLE SHEETS DETECTED")</f>
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="26">
         <v>100</v>
       </c>
-      <c r="E17" s="29" cm="1">
+      <c r="E17" s="26" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IF(NOT(IsGoogleSheets),C17*D17,"GOOGLE SHEETS DETECTED")</f>
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>4</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="27">
         <v>100</v>
       </c>
-      <c r="E18" s="30" cm="1">
+      <c r="E18" s="27" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">IF(NOT(IsGoogleSheets),C18*D18,"GOOGLE SHEETS DETECTED")</f>
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="26">
         <v>100</v>
       </c>
-      <c r="E19" s="29" cm="1">
+      <c r="E19" s="26" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">IF(NOT(IsGoogleSheets),C19*D19,"GOOGLE SHEETS DETECTED")</f>
         <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>6</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="28">
         <v>100</v>
       </c>
-      <c r="E20" s="31" cm="1">
+      <c r="E20" s="28" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">IF(NOT(IsGoogleSheets),C20*D20,"GOOGLE SHEETS DETECTED")</f>
         <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="26">
         <v>100</v>
       </c>
-      <c r="E21" s="29" cm="1">
+      <c r="E21" s="26" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">IF(NOT(IsGoogleSheets),C21*D21,"GOOGLE SHEETS DETECTED")</f>
         <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>8</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="27">
         <v>100</v>
       </c>
-      <c r="E22" s="30" cm="1">
+      <c r="E22" s="27" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">IF(NOT(IsGoogleSheets),C22*D22,"GOOGLE SHEETS DETECTED")</f>
         <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="26">
         <v>100</v>
       </c>
-      <c r="E23" s="29" cm="1">
+      <c r="E23" s="26" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">IF(NOT(IsGoogleSheets),C23*D23,"GOOGLE SHEETS DETECTED")</f>
         <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>10</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="27">
         <v>100</v>
       </c>
-      <c r="E24" s="30" cm="1">
+      <c r="E24" s="27" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">IF(NOT(IsGoogleSheets),C24*D24,"GOOGLE SHEETS DETECTED")</f>
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="4">
         <v>1000</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="26">
         <v>1</v>
       </c>
-      <c r="E25" s="29" cm="1">
+      <c r="E25" s="26" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">IF(NOT(IsGoogleSheets),C25*D25,"GOOGLE SHEETS DETECTED")</f>
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>2</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="27">
         <v>1000</v>
       </c>
-      <c r="E26" s="30" cm="1">
+      <c r="E26" s="27" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">IF(NOT(IsGoogleSheets),C26*D26,"GOOGLE SHEETS DETECTED")</f>
         <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="26">
         <v>10000</v>
       </c>
-      <c r="E27" s="29" cm="1">
+      <c r="E27" s="26" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">IF(NOT(IsGoogleSheets),C27*D27,"GOOGLE SHEETS DETECTED")</f>
         <v>10000</v>
       </c>
@@ -1246,7 +1165,7 @@
       <c r="D29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="29" cm="1">
+      <c r="E29" s="26" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">IF(NOT(IsGoogleSheets),SUM(E15:E27),"GOOGLE SHEETS DETECTED")</f>
         <v>18500</v>
       </c>
@@ -1255,7 +1174,7 @@
       <c r="D30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="29" cm="1">
+      <c r="E30" s="26" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">IF(NOT(IsGoogleSheets),E29*0.1,"GOOGLE SHEETS DETECTED")</f>
         <v>1850</v>
       </c>
@@ -1264,41 +1183,41 @@
       <c r="D31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="32" cm="1">
+      <c r="E31" s="29" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">IF(NOT(IsGoogleSheets),E29+E30,"GOOGLE SHEETS DETECTED")</f>
         <v>20350</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1317,7 +1236,7 @@
       <c r="E40" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O7+8hdBfpdgKAW75qGABkk2WlCV582pDq+HxqnWFmVo5qM2hJvAlW2qIXBqkdM3na4hl/JyiwAgzSjjotYo3IQ==" saltValue="pB/OClF2pQG5lcNM7DLi6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A15:A27" name="Range2"/>
     <protectedRange sqref="C15:D27" name="Range1"/>

--- a/invoice-watermarked.xlsx
+++ b/invoice-watermarked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swinc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAE703F-16AA-4791-92A9-29206C602969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7757A9-7A82-4177-BD58-DA70BE5119B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,23 +59,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
-  <si>
-    <t>Acme Corporation</t>
-  </si>
-  <si>
-    <t>123 Business Street</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>City, State ZIP</t>
   </si>
   <si>
-    <t>Phone: (555) 555-5555</t>
-  </si>
-  <si>
-    <t>Email: contact@yourbusiness.com</t>
-  </si>
-  <si>
     <t>INVOICE</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
   </si>
   <si>
     <t>PREVIEW</t>
-  </si>
-  <si>
-    <t>All amounts shown in U.S. Dollars (USD).</t>
   </si>
 </sst>
 </file>
@@ -424,125 +409,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>448184</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>62090</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="875048" cy="4296497"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1505E4-DD89-0CD9-9D84-09C85BB3A297}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="18225839">
-          <a:off x="162399" y="3723535"/>
-          <a:ext cx="4296497" cy="875048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5000" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="E4E4E4"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="127000">
-                  <a:srgbClr val="C8C8C8">
-                    <a:alpha val="0"/>
-                  </a:srgbClr>
-                </a:glow>
-                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="tx1"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5000" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="E4E4E4"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="127000">
-                  <a:srgbClr val="C8C8C8">
-                    <a:alpha val="0"/>
-                  </a:srgbClr>
-                </a:glow>
-                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="tx1"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>PREVIEW</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5000" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="E4E4E4"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="127000">
-                  <a:srgbClr val="C8C8C8">
-                    <a:alpha val="0"/>
-                  </a:srgbClr>
-                </a:glow>
-                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="tx1"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> ONLY</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="5000" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:srgbClr val="E4E4E4"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="127000">
-                <a:srgbClr val="C8C8C8">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:glow>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="tx1"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -833,8 +699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,38 +715,28 @@
       <c r="A1" s="25"/>
       <c r="B1" s="8"/>
       <c r="C1" s="33" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.5">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="23"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="31" t="str" cm="1">
@@ -894,69 +750,69 @@
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -972,7 +828,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="20">
         <v>2</v>
@@ -988,7 +844,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1004,7 +860,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="20">
         <v>4</v>
@@ -1020,7 +876,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
@@ -1036,7 +892,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="13">
         <v>6</v>
@@ -1052,7 +908,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1068,7 +924,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="20">
         <v>8</v>
@@ -1084,7 +940,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
         <v>9</v>
@@ -1100,7 +956,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" s="20">
         <v>10</v>
@@ -1116,7 +972,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4">
         <v>1000</v>
@@ -1132,7 +988,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C26" s="20">
         <v>2</v>
@@ -1148,7 +1004,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1163,7 +1019,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E29" s="26" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">IF(NOT(IsGoogleSheets),SUM(E15:E27),"GOOGLE SHEETS DETECTED")</f>
@@ -1172,7 +1028,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D30" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E30" s="26" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">IF(NOT(IsGoogleSheets),E29*0.1,"GOOGLE SHEETS DETECTED")</f>
@@ -1181,7 +1037,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D31" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E31" s="29" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">IF(NOT(IsGoogleSheets),E29+E30,"GOOGLE SHEETS DETECTED")</f>
@@ -1189,13 +1045,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1204,12 +1058,12 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1218,7 +1072,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1090,6 @@
       <c r="E40" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O7+8hdBfpdgKAW75qGABkk2WlCV582pDq+HxqnWFmVo5qM2hJvAlW2qIXBqkdM3na4hl/JyiwAgzSjjotYo3IQ==" saltValue="pB/OClF2pQG5lcNM7DLi6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A15:A27" name="Range2"/>
     <protectedRange sqref="C15:D27" name="Range1"/>
@@ -1252,7 +1105,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;14 &amp;K808080PREVIEW ONLY - NOT LICENSED FOR COMMERCIAL USE</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1267,18 +1119,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/invoice-watermarked.xlsx
+++ b/invoice-watermarked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swinc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7757A9-7A82-4177-BD58-DA70BE5119B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA05B9-784A-4825-A95A-D8FA6193CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,13 +190,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -249,26 +242,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -322,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,51 +319,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,8 +674,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,41 +687,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.5">
-      <c r="A2" s="23"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="31" t="str" cm="1">
+      <c r="A7" s="28" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">IF(NOT(IsGoogleSheets),"","Google Sheets is not allowed in the trial version!")</f>
         <v/>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
@@ -754,7 +730,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -765,7 +741,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -777,7 +753,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -793,226 +769,226 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="23">
         <v>100</v>
       </c>
-      <c r="E15" s="26" cm="1">
+      <c r="E15" s="23" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IF(NOT(IsGoogleSheets),C15*D15,"GOOGLE SHEETS DETECTED")</f>
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="19">
         <v>2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="24">
         <v>100</v>
       </c>
-      <c r="E16" s="27" cm="1">
+      <c r="E16" s="24" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">IF(NOT(IsGoogleSheets),C16*D16,"GOOGLE SHEETS DETECTED")</f>
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="23">
         <v>100</v>
       </c>
-      <c r="E17" s="26" cm="1">
+      <c r="E17" s="23" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IF(NOT(IsGoogleSheets),C17*D17,"GOOGLE SHEETS DETECTED")</f>
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="19">
         <v>4</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="24">
         <v>100</v>
       </c>
-      <c r="E18" s="27" cm="1">
+      <c r="E18" s="24" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">IF(NOT(IsGoogleSheets),C18*D18,"GOOGLE SHEETS DETECTED")</f>
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="23">
         <v>100</v>
       </c>
-      <c r="E19" s="26" cm="1">
+      <c r="E19" s="23" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">IF(NOT(IsGoogleSheets),C19*D19,"GOOGLE SHEETS DETECTED")</f>
         <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="A20" s="17"/>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12">
         <v>6</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="25">
         <v>100</v>
       </c>
-      <c r="E20" s="28" cm="1">
+      <c r="E20" s="25" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">IF(NOT(IsGoogleSheets),C20*D20,"GOOGLE SHEETS DETECTED")</f>
         <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="23">
         <v>100</v>
       </c>
-      <c r="E21" s="26" cm="1">
+      <c r="E21" s="23" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">IF(NOT(IsGoogleSheets),C21*D21,"GOOGLE SHEETS DETECTED")</f>
         <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="19">
         <v>8</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="24">
         <v>100</v>
       </c>
-      <c r="E22" s="27" cm="1">
+      <c r="E22" s="24" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">IF(NOT(IsGoogleSheets),C22*D22,"GOOGLE SHEETS DETECTED")</f>
         <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <v>100</v>
       </c>
-      <c r="E23" s="26" cm="1">
+      <c r="E23" s="23" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">IF(NOT(IsGoogleSheets),C23*D23,"GOOGLE SHEETS DETECTED")</f>
         <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="20">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="19">
         <v>10</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="24">
         <v>100</v>
       </c>
-      <c r="E24" s="27" cm="1">
+      <c r="E24" s="24" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">IF(NOT(IsGoogleSheets),C24*D24,"GOOGLE SHEETS DETECTED")</f>
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="4">
         <v>1000</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="26" cm="1">
+      <c r="E25" s="23" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">IF(NOT(IsGoogleSheets),C25*D25,"GOOGLE SHEETS DETECTED")</f>
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="19">
         <v>2</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="24">
         <v>1000</v>
       </c>
-      <c r="E26" s="27" cm="1">
+      <c r="E26" s="24" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">IF(NOT(IsGoogleSheets),C26*D26,"GOOGLE SHEETS DETECTED")</f>
         <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="23">
         <v>10000</v>
       </c>
-      <c r="E27" s="26" cm="1">
+      <c r="E27" s="23" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">IF(NOT(IsGoogleSheets),C27*D27,"GOOGLE SHEETS DETECTED")</f>
         <v>10000</v>
       </c>
@@ -1021,7 +997,7 @@
       <c r="D29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="26" cm="1">
+      <c r="E29" s="23" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">IF(NOT(IsGoogleSheets),SUM(E15:E27),"GOOGLE SHEETS DETECTED")</f>
         <v>18500</v>
       </c>
@@ -1030,7 +1006,7 @@
       <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="26" cm="1">
+      <c r="E30" s="23" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">IF(NOT(IsGoogleSheets),E29*0.1,"GOOGLE SHEETS DETECTED")</f>
         <v>1850</v>
       </c>
@@ -1039,39 +1015,39 @@
       <c r="D31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="29" cm="1">
+      <c r="E31" s="26" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">IF(NOT(IsGoogleSheets),E29+E30,"GOOGLE SHEETS DETECTED")</f>
         <v>20350</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="30"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1098,7 +1074,7 @@
   </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="D1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/invoice-watermarked.xlsx
+++ b/invoice-watermarked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swinc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA05B9-784A-4825-A95A-D8FA6193CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E673C6-1BCC-4746-B43E-BCC83BB14ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +359,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,9 +677,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -696,7 +697,7 @@
       <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="30"/>
